--- a/Texts/Глоссарий/Названия Покемонов.xlsx
+++ b/Texts/Глоссарий/Названия Покемонов.xlsx
@@ -7852,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="D420" sqref="D420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Глоссарий/Названия Покемонов.xlsx
+++ b/Texts/Глоссарий/Названия Покемонов.xlsx
@@ -7852,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="D420" sqref="D420"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Глоссарий/Названия Покемонов.xlsx
+++ b/Texts/Глоссарий/Названия Покемонов.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="2458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="2473">
   <si>
     <t>Раздел</t>
   </si>
@@ -7398,6 +7398,51 @@
   </si>
   <si>
     <t>Джамплафф</t>
+  </si>
+  <si>
+    <t>Super Hasbrello</t>
+  </si>
+  <si>
+    <t>Bidoof's Mama</t>
+  </si>
+  <si>
+    <t>Bidoof's Sister</t>
+  </si>
+  <si>
+    <t>Bidoof's Brother</t>
+  </si>
+  <si>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>Супер Хасбрелло</t>
+  </si>
+  <si>
+    <t>Мама Бидуфа</t>
+  </si>
+  <si>
+    <t>Сестра Бидуфа</t>
+  </si>
+  <si>
+    <t>Брат Бидуфа</t>
+  </si>
+  <si>
+    <t>Папа</t>
+  </si>
+  <si>
+    <t>Òôðåñ Öàòáñåììï</t>
+  </si>
+  <si>
+    <t>Íàíà Áéäôõà</t>
+  </si>
+  <si>
+    <t>Òåòóñà Áéäôõà</t>
+  </si>
+  <si>
+    <t>Áñàó Áéäôõà</t>
+  </si>
+  <si>
+    <t>Ðàðà</t>
   </si>
 </sst>
 </file>
@@ -7440,7 +7485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -7528,11 +7573,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7568,6 +7622,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7850,10 +7907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1182"/>
+  <dimension ref="A1:E1188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A1178" workbookViewId="0">
+      <selection activeCell="C1181" sqref="C1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25868,7 +25925,7 @@
     </row>
     <row r="1162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1162" s="7">
-        <f t="shared" ref="B1162:B1182" si="19">B1161+1</f>
+        <f t="shared" ref="B1162:B1188" si="19">B1161+1</f>
         <v>9914</v>
       </c>
       <c r="C1162" s="1" t="s">
@@ -25971,7 +26028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1169" s="7">
         <f t="shared" si="19"/>
         <v>9921</v>
@@ -25986,7 +26043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1170" s="7">
         <f t="shared" si="19"/>
         <v>9922</v>
@@ -26001,7 +26058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1171" s="7">
         <f t="shared" si="19"/>
         <v>9923</v>
@@ -26016,7 +26073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1172" s="7">
         <f t="shared" si="19"/>
         <v>9924</v>
@@ -26031,7 +26088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1173" s="7">
         <f t="shared" si="19"/>
         <v>9925</v>
@@ -26046,7 +26103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1174" s="7">
         <f t="shared" si="19"/>
         <v>9926</v>
@@ -26061,7 +26118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1175" s="7">
         <f t="shared" si="19"/>
         <v>9927</v>
@@ -26076,7 +26133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1176" s="7">
         <f t="shared" si="19"/>
         <v>9928</v>
@@ -26091,7 +26148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1177" s="7">
         <f t="shared" si="19"/>
         <v>9929</v>
@@ -26106,7 +26163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1178" s="7">
         <f t="shared" si="19"/>
         <v>9930</v>
@@ -26121,7 +26178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1179" s="7">
         <f t="shared" si="19"/>
         <v>9931</v>
@@ -26136,7 +26193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1180" s="7">
         <f t="shared" si="19"/>
         <v>9932</v>
@@ -26151,7 +26208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1181" s="7">
         <f t="shared" si="19"/>
         <v>9933</v>
@@ -26166,19 +26223,109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1182" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1182" s="7">
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1182" s="13"/>
+      <c r="B1182" s="13">
         <f t="shared" si="19"/>
         <v>9934</v>
       </c>
-      <c r="C1182" s="1" t="s">
+      <c r="C1182" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1182" s="1" t="s">
+      <c r="D1182" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1182" s="1" t="s">
+      <c r="E1182" s="13" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1183" s="1">
+        <v>17794</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E1183" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1184" s="7">
+        <f t="shared" si="19"/>
+        <v>17795</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1185" s="7">
+        <f t="shared" si="19"/>
+        <v>17796</v>
+      </c>
+      <c r="C1185" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D1185" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E1185" s="1" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1186" s="7">
+        <f t="shared" si="19"/>
+        <v>17797</v>
+      </c>
+      <c r="C1186" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1186" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1187" s="7">
+        <f t="shared" si="19"/>
+        <v>17798</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E1187" s="1" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1188" s="7">
+        <f t="shared" si="19"/>
+        <v>17799</v>
+      </c>
+      <c r="C1188" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1188" s="1" t="s">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>
